--- a/learning_backlog.xlsx
+++ b/learning_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Garima\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCAA30C-7FF8-4CF5-BC41-DCBC42B66089}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7272160-B16C-4B19-A97F-C7972457A38E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9D136594-234A-4203-829A-CF96B6F150B3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Line Item</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve">Quick References </t>
-  </si>
-  <si>
-    <t>l</t>
   </si>
   <si>
     <t>to remove dangling images - 
@@ -101,6 +98,12 @@
   </si>
   <si>
     <t>Basic working - But one service is giving more detailed information compared to other.  Need to understand the reasons</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done in one service. </t>
   </si>
 </sst>
 </file>
@@ -483,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394C820F-AEC5-4012-8BF1-B1C541550C6E}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -568,7 +571,7 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -586,10 +589,12 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -621,7 +626,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -630,11 +635,11 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
